--- a/Lessons/lesson13/timing.xlsx
+++ b/Lessons/lesson13/timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\GitHub\ECE252\Lessons\lesson13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE79AEB-04DB-42D1-8FB1-23432398D468}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D61A81-B27F-4C33-809C-2C15546548FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{43DE4FD0-6A92-4BA4-9FB8-7F4DB85B34C3}"/>
   </bookViews>
@@ -329,8 +329,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5638888888888887E-2"/>
-                  <c:y val="-5.5543161271507727E-2"/>
+                  <c:x val="-5.6416666666666664E-2"/>
+                  <c:y val="4.1666666666666664E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -605,6 +605,7 @@
         <c:axId val="421953632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1275,16 +1276,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1611,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64055BAB-BB79-454E-A105-CA7DBC8F5B9B}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
